--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C9B7AB-A217-3F40-A8DA-03686DFE42BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462CB370-EA17-464C-810F-9DD924C5DBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,35 +22,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>finalUrl</t>
-  </si>
-  <si>
-    <t>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</t>
-  </si>
-  <si>
-    <t>http://drupal-geneseo-backup.ddev.site/academics</t>
-  </si>
-  <si>
-    <t>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</t>
-  </si>
-  <si>
-    <t>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</t>
-  </si>
-  <si>
-    <t>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</t>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</t>
+  </si>
+  <si>
+    <t>/basic_page/105-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/119-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/209-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/216-description/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -61,15 +68,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,14 +90,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -391,34 +416,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.83203125" customWidth="1"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -432,12 +457,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://dev-infostride-geneseo.pantheonsite.io/basic_page/boiling-flasks-round-bottom/" xr:uid="{4C5C5195-89FA-5E48-8B12-A05BD4B66193}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://dev-infostride-geneseo.pantheonsite.io/academics" xr:uid="{B231DE5C-3933-C24A-9AAC-3CF15448C454}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://dev-infostride-geneseo.pantheonsite.io/basic_page/mofs-part-3/" xr:uid="{211FAB93-E79E-EB4F-8E0C-4FA5A0B9DBCD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462CB370-EA17-464C-810F-9DD924C5DBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825369C-0DC7-7645-999E-238600495C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Path</t>
   </si>
   <si>
     <t>/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</t>
-  </si>
-  <si>
-    <t>/basic_page/105-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/119-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/209-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/216-description/</t>
   </si>
 </sst>
 </file>
@@ -419,7 +407,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,26 +425,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>

--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825369C-0DC7-7645-999E-238600495C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4955E05-85A6-E647-99A9-61E3F462F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Path</t>
   </si>
   <si>
     <t>/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</t>
+  </si>
+  <si>
+    <t>/basic_page/105-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/119-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/209-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/216-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/301-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/313-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/331-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/342-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/361-description/</t>
+  </si>
+  <si>
+    <t>/basic_page/chemical-waste-procedures/</t>
+  </si>
+  <si>
+    <t>/basic_page/construction-page-chemical-safety/</t>
+  </si>
+  <si>
+    <t>/basic_page/past-course-offerings/</t>
+  </si>
+  <si>
+    <t>/basic_page/fall-2014-course-offerings/</t>
+  </si>
+  <si>
+    <t>/basic_page/julian-bond/</t>
+  </si>
+  <si>
+    <t>/basic_page/beakers/</t>
+  </si>
+  <si>
+    <t>/basic_page/peace_action/</t>
+  </si>
+  <si>
+    <t>/basic_page/charles-cobb/</t>
+  </si>
+  <si>
+    <t>/basic_page/david-dennis/</t>
+  </si>
+  <si>
+    <t>/basic_page/anticipated-enrollment-questionaire/</t>
+  </si>
+  <si>
+    <t>/basic_page/supervisor-survey-college-work-study-process/</t>
+  </si>
+  <si>
+    <t>/basic_page/hasan-jeffries/</t>
+  </si>
+  <si>
+    <t>/basic_page/exit-counseling-session-registration/</t>
+  </si>
+  <si>
+    <t>/basic_page/biology_club/</t>
+  </si>
+  <si>
+    <t>/basic_page/roemer-arboretum-operations-assistant-position/</t>
+  </si>
+  <si>
+    <t>/basic_page/facilities_services/</t>
+  </si>
+  <si>
+    <t>/basic_page/charles-mcdew/</t>
+  </si>
+  <si>
+    <t>/basic_page/chem-105-sds/</t>
+  </si>
+  <si>
+    <t>/basic_page/facstaff_grounds/</t>
+  </si>
+  <si>
+    <t>/basic_page/funnels/</t>
   </si>
 </sst>
 </file>
@@ -404,10 +491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -425,10 +512,155 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" display="https://dev-infostride-geneseo.pantheonsite.io/basic_page/anticipated-enrollment-questionaire/" xr:uid="{71B5F80B-3970-F842-B7FA-28B4206171B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4955E05-85A6-E647-99A9-61E3F462F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909BD294-739D-F441-B068-161F1501B626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic_page" sheetId="1" r:id="rId1"/>
@@ -20,99 +20,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Path</t>
   </si>
   <si>
-    <t>/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</t>
-  </si>
-  <si>
-    <t>/basic_page/105-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/119-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/209-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/216-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/301-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/313-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/331-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/342-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/361-description/</t>
-  </si>
-  <si>
-    <t>/basic_page/chemical-waste-procedures/</t>
-  </si>
-  <si>
-    <t>/basic_page/construction-page-chemical-safety/</t>
-  </si>
-  <si>
-    <t>/basic_page/past-course-offerings/</t>
-  </si>
-  <si>
-    <t>/basic_page/fall-2014-course-offerings/</t>
-  </si>
-  <si>
-    <t>/basic_page/julian-bond/</t>
-  </si>
-  <si>
-    <t>/basic_page/beakers/</t>
-  </si>
-  <si>
-    <t>/basic_page/peace_action/</t>
-  </si>
-  <si>
-    <t>/basic_page/charles-cobb/</t>
-  </si>
-  <si>
-    <t>/basic_page/david-dennis/</t>
-  </si>
-  <si>
-    <t>/basic_page/anticipated-enrollment-questionaire/</t>
-  </si>
-  <si>
-    <t>/basic_page/supervisor-survey-college-work-study-process/</t>
-  </si>
-  <si>
-    <t>/basic_page/hasan-jeffries/</t>
-  </si>
-  <si>
-    <t>/basic_page/exit-counseling-session-registration/</t>
-  </si>
-  <si>
-    <t>/basic_page/biology_club/</t>
-  </si>
-  <si>
-    <t>/basic_page/roemer-arboretum-operations-assistant-position/</t>
-  </si>
-  <si>
-    <t>/basic_page/facilities_services/</t>
-  </si>
-  <si>
-    <t>/basic_page/charles-mcdew/</t>
-  </si>
-  <si>
-    <t>/basic_page/chem-105-sds/</t>
-  </si>
-  <si>
-    <t>/basic_page/facstaff_grounds/</t>
-  </si>
-  <si>
-    <t>/basic_page/funnels/</t>
+    <t>/business/4-1programs</t>
+  </si>
+  <si>
+    <t>/business/accounting-related-internships</t>
+  </si>
+  <si>
+    <t>/business/appeal-process-school-business-admission-denials</t>
+  </si>
+  <si>
+    <t>/business/fed-challenge</t>
+  </si>
+  <si>
+    <t>/business/internship-etiquette</t>
+  </si>
+  <si>
+    <t>/career_development/faculty-resources</t>
+  </si>
+  <si>
+    <t>/cas/board-directors-info</t>
+  </si>
+  <si>
+    <t>/cas/dining-green-overview-image</t>
+  </si>
+  <si>
+    <t>/cas/dining-survey</t>
+  </si>
+  <si>
+    <t>/cas/dining-updates-spring-2022</t>
+  </si>
+  <si>
+    <t>/cas/download-cas-mobile-app-image</t>
+  </si>
+  <si>
+    <t>/cas/expresslunch</t>
+  </si>
+  <si>
+    <t>/cas/feast-thrones</t>
+  </si>
+  <si>
+    <t>/cas/gf-banner</t>
+  </si>
+  <si>
+    <t>/cas/hertz-steps</t>
+  </si>
+  <si>
+    <t>/cas/hourly-employment</t>
+  </si>
+  <si>
+    <t>/cas/juice-bar-photo</t>
+  </si>
+  <si>
+    <t>/cas/local-vendors</t>
+  </si>
+  <si>
+    <t>/cas/ocotal-coffee</t>
+  </si>
+  <si>
+    <t>/cas/online-ordering-faq</t>
+  </si>
+  <si>
+    <t>/cas/paintknight</t>
+  </si>
+  <si>
+    <t>/cas/ramadan-menu</t>
+  </si>
+  <si>
+    <t>/cas/roomreservation</t>
+  </si>
+  <si>
+    <t>/cas/starbucks-allergen-options</t>
+  </si>
+  <si>
+    <t>/cas/supporting-geneseo</t>
+  </si>
+  <si>
+    <t>/cas/VeganDinner</t>
+  </si>
+  <si>
+    <t>/cas/webform/fast-account-contact-form</t>
+  </si>
+  <si>
+    <t>/cas/winter-break-information</t>
+  </si>
+  <si>
+    <t>/cdl/digital-humanities</t>
+  </si>
+  <si>
+    <t>/chang/publications</t>
+  </si>
+  <si>
+    <t>/chemistry/brucker-avance-dpx-300-nmr-spectrometer</t>
+  </si>
+  <si>
+    <t>/chemistry/chemical-waste-procedure-lis</t>
+  </si>
+  <si>
+    <t>/chemistry/chemical-waste-procedures</t>
+  </si>
+  <si>
+    <t>/chemistry/chemistry-research-project-videos</t>
+  </si>
+  <si>
+    <t>/chemistry/coy-tempcyclerii-pcr-thermalcycler</t>
+  </si>
+  <si>
+    <t>/chemistry/diversity-equity-and-inclusion-geneseo-chemistry</t>
+  </si>
+  <si>
+    <t>/chemistry/donations-chemistry-department</t>
+  </si>
+  <si>
+    <t>/chemistry/facstaff_chem</t>
+  </si>
+  <si>
+    <t>/chemistry/gamma_sigma_epsilon</t>
+  </si>
+  <si>
+    <t>/chemistry/h-cristina-geiger-publications</t>
+  </si>
+  <si>
+    <t>/chemistry/hazardous-waste-training</t>
+  </si>
+  <si>
+    <t>/chemistry/hp-5890-gcms</t>
+  </si>
+  <si>
+    <t>/chemistry/marathon-16-km-ultracentrafuge</t>
+  </si>
+  <si>
+    <t>/chemistry/ndyag-laser-pumped-optical-parametric-oscillator-opo</t>
+  </si>
+  <si>
+    <t>/chemistry/news</t>
+  </si>
+  <si>
+    <t>/chemistry/nmr-software-tutorial-vnmj</t>
+  </si>
+  <si>
+    <t>/chemistry/past_news</t>
+  </si>
+  <si>
+    <t>/chemistry/phastsystem-electrophoresis</t>
+  </si>
+  <si>
+    <t>/chemistry/prospective_students</t>
+  </si>
+  <si>
+    <t>/chemistry/research_oxford</t>
   </si>
 </sst>
 </file>
@@ -135,12 +195,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,19 +233,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,10 +549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,97 +566,97 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -608,59 +666,1506 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="2"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="2"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="2"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="2"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="2"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="2"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="2"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="2"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="2"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="2"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="2"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="2"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="2"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="2"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="2"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="2"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="2"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="2"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="2"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="2"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="2"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="2"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="2"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="2"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="2"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="2"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="2"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="2"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="2"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="2"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="2"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="2"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="2"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="2"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="2"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="2"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="2"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="2"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="2"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="2"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="2"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="2"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="2"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="2"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="2"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="2"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="2"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="2"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="2"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="2"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="2"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="2"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="2"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="2"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="2"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="2"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="2"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="2"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="2"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="2"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="2"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="2"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="2"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="2"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="2"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="2"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="2"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="2"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="2"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="2"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="2"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="2"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="2"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="2"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="2"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="2"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="2"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="2"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="2"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="2"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="2"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="2"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="2"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="2"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="2"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="2"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="2"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="2"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="2"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="2"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="2"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="2"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="2"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="2"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="2"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="2"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="2"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="2"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="2"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="2"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="2"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="2"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="2"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="2"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="2"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="2"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="2"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="2"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="2"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="2"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="2"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="2"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="2"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="2"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="2"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="2"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="2"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="2"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="2"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="2"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="2"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="2"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="2"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="2"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="2"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="2"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="2"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="2"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="2"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="2"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="2"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="2"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="2"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="2"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="2"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="2"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="2"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="2"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="2"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="2"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="2"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="2"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="2"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="2"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="2"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="2"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="2"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="2"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="2"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="2"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="2"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="2"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="2"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="2"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="2"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="2"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="2"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="2"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="2"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="2"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="2"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="2"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="2"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="2"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="2"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="2"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="2"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="2"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="2"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="2"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="2"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="2"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="2"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="2"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="2"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="2"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="2"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="2"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="2"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="2"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="2"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="2"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="2"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="2"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="2"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="2"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="2"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="2"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="2"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="2"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="2"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="2"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="2"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="2"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="2"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="2"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="2"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="2"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="2"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="2"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="2"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="2"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="2"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="2"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="2"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="2"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="2"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="2"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="2"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="2"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="2"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="2"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="2"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="2"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="2"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="2"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="2"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="2"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="2"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="2"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="2"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="2"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="2"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="2"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="2"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="2"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" display="https://dev-infostride-geneseo.pantheonsite.io/basic_page/anticipated-enrollment-questionaire/" xr:uid="{71B5F80B-3970-F842-B7FA-28B4206171B7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC27166-9AB2-2640-B56C-6F7BE419D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1D447B-4CC2-7D4C-9A17-70EDE2E80A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,153 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="4137">
   <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>/anthropology/beverly_j_rex-burley</t>
+  </si>
+  <si>
+    <t>/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</t>
+  </si>
+  <si>
+    <t>/aac/forms-and-documents</t>
+  </si>
+  <si>
+    <t>/academics/accelerated-masters-history-or-cultural-studies</t>
+  </si>
+  <si>
+    <t>/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</t>
+  </si>
+  <si>
+    <t>/academics/medieval-studies-minor</t>
+  </si>
+  <si>
+    <t>/accessibility-office/accessing-services</t>
+  </si>
+  <si>
+    <t>/accessibility-office/appealsgrievance-process</t>
+  </si>
+  <si>
+    <t>/accessibility-office/definitions</t>
+  </si>
+  <si>
+    <t>/accessibility-office/documentation-criteria</t>
+  </si>
+  <si>
+    <t>/accessibility-office/emergency-evacuation</t>
+  </si>
+  <si>
+    <t>/accessibility-office/foreign-language</t>
+  </si>
+  <si>
+    <t>/accessibility-office/glean</t>
+  </si>
+  <si>
+    <t>/accessibility-office/guidance-modified-attendance-accommodations</t>
+  </si>
+  <si>
+    <t>/accessibility-office/reporting-physical-barriers</t>
+  </si>
+  <si>
+    <t>/accessibility-office/resources</t>
+  </si>
+  <si>
+    <t>/accounting_society/about</t>
+  </si>
+  <si>
+    <t>/accounting_society/organizations</t>
+  </si>
+  <si>
+    <t>/actuarial/presentations</t>
+  </si>
+  <si>
+    <t>/admissions/department-visits</t>
+  </si>
+  <si>
+    <t>/admissions/test-optional-faqs</t>
+  </si>
+  <si>
+    <t>/akpsi.geneseo/photos/1</t>
+  </si>
+  <si>
+    <t>/akpsi.geneseo/photos/2</t>
+  </si>
+  <si>
+    <t>/akpsi/alumni</t>
+  </si>
+  <si>
+    <t>/akpsi/alumni-reconnect-form</t>
+  </si>
+  <si>
+    <t>/akpsi/alumni.</t>
+  </si>
+  <si>
+    <t>/akpsi/calendar</t>
+  </si>
+  <si>
+    <t>/akpsi/community-service</t>
+  </si>
+  <si>
+    <t>/akpsi/contact</t>
+  </si>
+  <si>
+    <t>/akpsi/current-brothers</t>
+  </si>
+  <si>
+    <t>/akpsi/families</t>
+  </si>
+  <si>
+    <t>/akpsi/family-lines</t>
+  </si>
+  <si>
+    <t>/akpsi/forms-documents</t>
+  </si>
+  <si>
+    <t>/akpsi/history</t>
+  </si>
+  <si>
+    <t>/akpsi/professional-development</t>
+  </si>
+  <si>
+    <t>/akpsi/psi-omicron</t>
+  </si>
+  <si>
+    <t>/alumni/alumni-bookshelf</t>
+  </si>
+  <si>
+    <t>/alumni/alumni-event-photos</t>
+  </si>
+  <si>
+    <t>/alumni/get-involved</t>
+  </si>
+  <si>
+    <t>/alumni/greek-hall-fame</t>
+  </si>
+  <si>
+    <t>/alumni/herzman-farewell-lecture</t>
+  </si>
+  <si>
+    <t>/alumni/knight-nation-social-media-ambassadors</t>
+  </si>
+  <si>
+    <t>/alumni/roy-mctarnaghan-54</t>
+  </si>
+  <si>
+    <t>/alumni/sgaa-committees</t>
+  </si>
+  <si>
+    <t>/alumni/sgaa/awards</t>
+  </si>
+  <si>
+    <t>/alumni/thank-you</t>
+  </si>
+  <si>
     <t>/alumni/thank-you-0</t>
   </si>
   <si>
     <t>/american_studies/scholarships-awards</t>
   </si>
   <si>
-    <t>/anthropology/beverly_j_rex-burley</t>
-  </si>
-  <si>
     <t>/anthropology/cobascholarlyresources</t>
   </si>
   <si>
@@ -38,144 +176,6 @@
   </si>
   <si>
     <t>/aop/aop_director_welcome</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</t>
-  </si>
-  <si>
-    <t>/aac/forms-and-documents</t>
-  </si>
-  <si>
-    <t>/academics/accelerated-masters-history-or-cultural-studies</t>
-  </si>
-  <si>
-    <t>/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</t>
-  </si>
-  <si>
-    <t>/academics/medieval-studies-minor</t>
-  </si>
-  <si>
-    <t>/accessibility-office/accessing-services</t>
-  </si>
-  <si>
-    <t>/accessibility-office/appealsgrievance-process</t>
-  </si>
-  <si>
-    <t>/accessibility-office/definitions</t>
-  </si>
-  <si>
-    <t>/accessibility-office/documentation-criteria</t>
-  </si>
-  <si>
-    <t>/accessibility-office/emergency-evacuation</t>
-  </si>
-  <si>
-    <t>/accessibility-office/foreign-language</t>
-  </si>
-  <si>
-    <t>/accessibility-office/glean</t>
-  </si>
-  <si>
-    <t>/accessibility-office/guidance-modified-attendance-accommodations</t>
-  </si>
-  <si>
-    <t>/accessibility-office/reporting-physical-barriers</t>
-  </si>
-  <si>
-    <t>/accessibility-office/resources</t>
-  </si>
-  <si>
-    <t>/accounting_society/about</t>
-  </si>
-  <si>
-    <t>/accounting_society/organizations</t>
-  </si>
-  <si>
-    <t>/actuarial/presentations</t>
-  </si>
-  <si>
-    <t>/admissions/department-visits</t>
-  </si>
-  <si>
-    <t>/admissions/test-optional-faqs</t>
-  </si>
-  <si>
-    <t>/akpsi.geneseo/photos/1</t>
-  </si>
-  <si>
-    <t>/akpsi.geneseo/photos/2</t>
-  </si>
-  <si>
-    <t>/akpsi/alumni</t>
-  </si>
-  <si>
-    <t>/akpsi/alumni-reconnect-form</t>
-  </si>
-  <si>
-    <t>/akpsi/alumni.</t>
-  </si>
-  <si>
-    <t>/akpsi/calendar</t>
-  </si>
-  <si>
-    <t>/akpsi/community-service</t>
-  </si>
-  <si>
-    <t>/akpsi/contact</t>
-  </si>
-  <si>
-    <t>/akpsi/current-brothers</t>
-  </si>
-  <si>
-    <t>/akpsi/families</t>
-  </si>
-  <si>
-    <t>/akpsi/family-lines</t>
-  </si>
-  <si>
-    <t>/akpsi/forms-documents</t>
-  </si>
-  <si>
-    <t>/akpsi/history</t>
-  </si>
-  <si>
-    <t>/akpsi/professional-development</t>
-  </si>
-  <si>
-    <t>/akpsi/psi-omicron</t>
-  </si>
-  <si>
-    <t>/alumni/alumni-bookshelf</t>
-  </si>
-  <si>
-    <t>/alumni/alumni-event-photos</t>
-  </si>
-  <si>
-    <t>/alumni/get-involved</t>
-  </si>
-  <si>
-    <t>/alumni/greek-hall-fame</t>
-  </si>
-  <si>
-    <t>/alumni/herzman-farewell-lecture</t>
-  </si>
-  <si>
-    <t>/alumni/knight-nation-social-media-ambassadors</t>
-  </si>
-  <si>
-    <t>/alumni/roy-mctarnaghan-54</t>
-  </si>
-  <si>
-    <t>/alumni/sgaa-committees</t>
-  </si>
-  <si>
-    <t>/alumni/sgaa/awards</t>
-  </si>
-  <si>
-    <t>/alumni/thank-you</t>
   </si>
   <si>
     <t>/aop/aop-tutoring-calendar</t>
@@ -12813,7 +12813,7 @@
   <dimension ref="A1:A4137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12823,262 +12823,262 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">

--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639FFE65-1F67-8041-BF00-D504216E617E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56159C57-F183-5243-AF4C-9EA5FAE4D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="449">
   <si>
     <t>urso</t>
   </si>
@@ -1368,298 +1368,32 @@
     <t>rivera</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/astrophysics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/anthropology</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/cognitive-science</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/applied-physics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/astronomy</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/applied-mathematics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/art-history</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/biochemistry</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/accounting</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/biology</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/black-and-africana-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/business-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/cultural-studies-41</t>
-  </si>
-  <si>
     <t>/academic-program-finder/mba-41</t>
   </si>
   <si>
-    <t>/academic-program-finder/biophysics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/communication</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/dance</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/chemistry</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/conflict-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/economics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/entrepreneurship</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/data-analytics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/engineering-32</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/finance</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/european-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/film-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/ethics-and-values-society</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/geography</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/geochemistry</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/history</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/human-resources-management</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/german</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/jazz-and-american-music-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/human-development</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/international-relations</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/legal-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/latin-american-and-caribbean-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/linguistics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/multidisciplinary-creative-practice</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/music</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/medieval-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/museum-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/music-composition</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/geophysics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/geological-sciences</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/music-conducting</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/physics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/neuroscience</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/political-science</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/piano-pedagogy</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/psychology</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/pre-professional-studies-music-teaching-k-12</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/queer-and-sexuality-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/public-administration</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/sociology</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/religious-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/spanish</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/sociomedical-sciences</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/musical-theatre</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/sustainable-systems-41</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/music-business-recording-and-production</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/sustainability-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/theatre</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/urban-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/accounting-masters</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/philosophy-politics-and-economics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/individualized-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/law-33</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/history-masters</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/marketing</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/chiropractic-medicine-33-and-43</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/dentistry-44</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/pharmacy-34</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/osteopathic-44</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/podiatry-44</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/optometry-34</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/asian-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/physical-therapy-33</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/american-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/english</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/comparative-literature</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/mathematics</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/native-american-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/french</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/philosophy</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/womens-and-gender-studies</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/adolescence-education</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/business-administration</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/early-childhood-and-childhood-education</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/reading-and-literacy</t>
-  </si>
-  <si>
-    <t>/academic-program-finder/teaching-students-disabilities-childhood-education</t>
+    <t>/hr/performance-management%C2%A0tools-resources</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>Slug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1671,27 +1405,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BACC6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1718,22 +1438,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2037,10 +1751,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B482"/>
+  <dimension ref="A1:B470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2049,1732 +1763,1432 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>455</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>457</v>
-      </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>458</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>460</v>
-      </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>461</v>
-      </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>462</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>463</v>
-      </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>464</v>
-      </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>465</v>
-      </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>466</v>
-      </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>467</v>
-      </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>468</v>
-      </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>469</v>
-      </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>470</v>
-      </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>471</v>
-      </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>472</v>
-      </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>473</v>
-      </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>474</v>
-      </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>475</v>
-      </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>476</v>
-      </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>477</v>
-      </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>478</v>
-      </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>479</v>
-      </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>480</v>
-      </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>481</v>
-      </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>482</v>
-      </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>483</v>
-      </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>484</v>
-      </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>485</v>
-      </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>486</v>
-      </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>487</v>
-      </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>488</v>
-      </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>489</v>
-      </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>490</v>
-      </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>491</v>
-      </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>492</v>
-      </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>493</v>
-      </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>494</v>
-      </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>495</v>
-      </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>496</v>
-      </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>497</v>
-      </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>498</v>
-      </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>499</v>
-      </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>500</v>
-      </c>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>501</v>
-      </c>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>502</v>
-      </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>503</v>
-      </c>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>504</v>
-      </c>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>505</v>
-      </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>506</v>
-      </c>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>507</v>
-      </c>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>508</v>
-      </c>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>509</v>
-      </c>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>510</v>
-      </c>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>511</v>
-      </c>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>512</v>
-      </c>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>513</v>
-      </c>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>514</v>
-      </c>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>515</v>
-      </c>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>516</v>
-      </c>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>517</v>
-      </c>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>518</v>
-      </c>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>519</v>
-      </c>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>520</v>
-      </c>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>521</v>
-      </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>522</v>
-      </c>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>523</v>
-      </c>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>524</v>
-      </c>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>525</v>
-      </c>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>526</v>
-      </c>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>527</v>
-      </c>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>528</v>
-      </c>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>529</v>
-      </c>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>530</v>
-      </c>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>531</v>
-      </c>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>532</v>
-      </c>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>533</v>
-      </c>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>534</v>
-      </c>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="3"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="3"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="3"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="3"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="3"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="3"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="3"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="3"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="3"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="3"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="3"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="3"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="3"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="3"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="3"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="3"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="3"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="3"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="3"/>
+      <c r="B114" s="1"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="3"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="3"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="3"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="3"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="3"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="3"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="3"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="3"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="3"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="3"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="3"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="3"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="3"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="3"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="3"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="3"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="3"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="3"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="3"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="3"/>
+      <c r="B134" s="1"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="3"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="3"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="3"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="3"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="3"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="3"/>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="3"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="3"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="3"/>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="3"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="3"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="3"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="3"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="3"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="3"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="3"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="3"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="3"/>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="3"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="3"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="3"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="3"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="3"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="3"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="3"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="3"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="3"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="3"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163" s="3"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="3"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="3"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="3"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="3"/>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="3"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="3"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170" s="3"/>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="3"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="3"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="3"/>
+      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="3"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="3"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B176" s="3"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="3"/>
+      <c r="B177" s="1"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="3"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="3"/>
+      <c r="B179" s="1"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="3"/>
+      <c r="B180" s="1"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="3"/>
+      <c r="B181" s="1"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="3"/>
+      <c r="B182" s="1"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="3"/>
+      <c r="B183" s="1"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184" s="3"/>
+      <c r="B184" s="1"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185" s="3"/>
+      <c r="B185" s="1"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" s="3"/>
+      <c r="B186" s="1"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B187" s="3"/>
+      <c r="B187" s="1"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B188" s="3"/>
+      <c r="B188" s="1"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="3"/>
+      <c r="B189" s="1"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B190" s="3"/>
+      <c r="B190" s="1"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B191" s="3"/>
+      <c r="B191" s="1"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B192" s="3"/>
+      <c r="B192" s="1"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="3"/>
+      <c r="B193" s="1"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="3"/>
+      <c r="B194" s="1"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="3"/>
+      <c r="B195" s="1"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="3"/>
+      <c r="B196" s="1"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" s="3"/>
+      <c r="B197" s="1"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" s="3"/>
+      <c r="B198" s="1"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199" s="3"/>
+      <c r="B199" s="1"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" s="3"/>
+      <c r="B200" s="1"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201" s="3"/>
+      <c r="B201" s="1"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="3"/>
+      <c r="B202" s="1"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" s="3"/>
+      <c r="B203" s="1"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="3"/>
+      <c r="B204" s="1"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" s="3"/>
+      <c r="B205" s="1"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" s="3"/>
+      <c r="B206" s="1"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="3"/>
+      <c r="B207" s="1"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208" s="3"/>
+      <c r="B208" s="1"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" s="3"/>
+      <c r="B209" s="1"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" s="3"/>
+      <c r="B210" s="1"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B211" s="3"/>
+      <c r="B211" s="1"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B212" s="3"/>
+      <c r="B212" s="1"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B213" s="3"/>
+      <c r="B213" s="1"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B214" s="3"/>
+      <c r="B214" s="1"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" s="3"/>
+      <c r="B215" s="1"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="3"/>
+      <c r="B216" s="1"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B217" s="3"/>
+      <c r="B217" s="1"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" s="3"/>
+      <c r="B218" s="1"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="3"/>
+      <c r="B219" s="1"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="3"/>
+      <c r="B220" s="1"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" s="3"/>
+      <c r="B221" s="1"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" s="3"/>
+      <c r="B222" s="1"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="3"/>
+      <c r="B223" s="1"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" s="3"/>
+      <c r="B224" s="1"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B225" s="3"/>
+      <c r="B225" s="1"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" s="3"/>
+      <c r="B226" s="1"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" s="3"/>
+      <c r="B227" s="1"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B228" s="3"/>
+      <c r="B228" s="1"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" s="3"/>
+      <c r="B229" s="1"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B230" s="3"/>
+      <c r="B230" s="1"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" s="3"/>
+      <c r="B231" s="1"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B232" s="3"/>
+      <c r="B232" s="1"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B233" s="3"/>
+      <c r="B233" s="1"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B234" s="3"/>
+      <c r="B234" s="1"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B235" s="3"/>
+      <c r="B235" s="1"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" s="3"/>
+      <c r="B236" s="1"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B237" s="3"/>
+      <c r="B237" s="1"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" s="3"/>
+      <c r="B238" s="1"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" s="3"/>
+      <c r="B239" s="1"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" s="3"/>
+      <c r="B240" s="1"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" s="3"/>
+      <c r="B241" s="1"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B242" s="3"/>
+      <c r="B242" s="1"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" s="3"/>
+      <c r="B243" s="1"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B244" s="3"/>
+      <c r="B244" s="1"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" s="3"/>
+      <c r="B245" s="1"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B246" s="3"/>
+      <c r="B246" s="1"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B247" s="3"/>
+      <c r="B247" s="1"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B248" s="3"/>
+      <c r="B248" s="1"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B249" s="3"/>
+      <c r="B249" s="1"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B250" s="3"/>
+      <c r="B250" s="1"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B251" s="3"/>
+      <c r="B251" s="1"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B252" s="3"/>
+      <c r="B252" s="1"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B253" s="3"/>
+      <c r="B253" s="1"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" s="3"/>
+      <c r="B254" s="1"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B255" s="3"/>
+      <c r="B255" s="1"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B256" s="3"/>
+      <c r="B256" s="1"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B257" s="3"/>
+      <c r="B257" s="1"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B258" s="3"/>
+      <c r="B258" s="1"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B259" s="3"/>
+      <c r="B259" s="1"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B260" s="3"/>
+      <c r="B260" s="1"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B261" s="3"/>
+      <c r="B261" s="1"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B262" s="3"/>
+      <c r="B262" s="1"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B263" s="3"/>
+      <c r="B263" s="1"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B264" s="3"/>
+      <c r="B264" s="1"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B265" s="3"/>
+      <c r="B265" s="1"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B266" s="3"/>
+      <c r="B266" s="1"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B267" s="3"/>
+      <c r="B267" s="1"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B268" s="3"/>
+      <c r="B268" s="1"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B269" s="3"/>
+      <c r="B269" s="1"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B270" s="3"/>
+      <c r="B270" s="1"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B271" s="3"/>
+      <c r="B271" s="1"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B272" s="3"/>
+      <c r="B272" s="1"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B273" s="3"/>
+      <c r="B273" s="1"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" s="3"/>
+      <c r="B274" s="1"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B275" s="3"/>
+      <c r="B275" s="1"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" s="3"/>
+      <c r="B276" s="1"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="3"/>
+      <c r="B277" s="1"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B278" s="3"/>
+      <c r="B278" s="1"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B279" s="3"/>
+      <c r="B279" s="1"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B280" s="3"/>
+      <c r="B280" s="1"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B281" s="3"/>
+      <c r="B281" s="1"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B282" s="3"/>
+      <c r="B282" s="1"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B283" s="3"/>
+      <c r="B283" s="1"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B284" s="3"/>
+      <c r="B284" s="1"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B285" s="3"/>
+      <c r="B285" s="1"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B286" s="3"/>
+      <c r="B286" s="1"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B287" s="3"/>
+      <c r="B287" s="1"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B288" s="3"/>
+      <c r="B288" s="1"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B289" s="3"/>
+      <c r="B289" s="1"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" s="3"/>
+      <c r="B290" s="1"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B291" s="3"/>
+      <c r="B291" s="1"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="3"/>
+      <c r="B292" s="1"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B293" s="3"/>
+      <c r="B293" s="1"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B294" s="3"/>
+      <c r="B294" s="1"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B295" s="3"/>
+      <c r="B295" s="1"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B296" s="3"/>
+      <c r="B296" s="1"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B297" s="3"/>
+      <c r="B297" s="1"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B298" s="3"/>
+      <c r="B298" s="1"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B299" s="3"/>
+      <c r="B299" s="1"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B300" s="3"/>
+      <c r="B300" s="1"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B301" s="3"/>
+      <c r="B301" s="1"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B302" s="3"/>
+      <c r="B302" s="1"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B303" s="3"/>
+      <c r="B303" s="1"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B304" s="3"/>
+      <c r="B304" s="1"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B305" s="3"/>
+      <c r="B305" s="1"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B306" s="3"/>
+      <c r="B306" s="1"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B307" s="3"/>
+      <c r="B307" s="1"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B308" s="3"/>
+      <c r="B308" s="1"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B309" s="3"/>
+      <c r="B309" s="1"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B310" s="3"/>
+      <c r="B310" s="1"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B311" s="3"/>
+      <c r="B311" s="1"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B312" s="3"/>
+      <c r="B312" s="1"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B313" s="3"/>
+      <c r="B313" s="1"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B314" s="3"/>
+      <c r="B314" s="1"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B315" s="3"/>
+      <c r="B315" s="1"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B316" s="3"/>
+      <c r="B316" s="1"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B317" s="3"/>
+      <c r="B317" s="1"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B318" s="3"/>
+      <c r="B318" s="1"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B319" s="3"/>
+      <c r="B319" s="1"/>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B320" s="3"/>
+      <c r="B320" s="1"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B321" s="3"/>
+      <c r="B321" s="1"/>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B322" s="3"/>
+      <c r="B322" s="1"/>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B323" s="3"/>
+      <c r="B323" s="1"/>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B324" s="3"/>
+      <c r="B324" s="1"/>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B325" s="3"/>
+      <c r="B325" s="1"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B326" s="3"/>
+      <c r="B326" s="1"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B327" s="3"/>
+      <c r="B327" s="1"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B328" s="3"/>
+      <c r="B328" s="1"/>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B329" s="3"/>
+      <c r="B329" s="1"/>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B330" s="3"/>
+      <c r="B330" s="1"/>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B331" s="3"/>
+      <c r="B331" s="1"/>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B332" s="3"/>
+      <c r="B332" s="1"/>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B333" s="3"/>
+      <c r="B333" s="1"/>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B334" s="3"/>
+      <c r="B334" s="1"/>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B335" s="3"/>
+      <c r="B335" s="1"/>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B336" s="3"/>
+      <c r="B336" s="1"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B337" s="3"/>
+      <c r="B337" s="1"/>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B338" s="3"/>
+      <c r="B338" s="1"/>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B339" s="3"/>
+      <c r="B339" s="1"/>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B340" s="3"/>
+      <c r="B340" s="1"/>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B341" s="3"/>
+      <c r="B341" s="1"/>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B342" s="3"/>
+      <c r="B342" s="1"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B343" s="3"/>
+      <c r="B343" s="1"/>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B344" s="3"/>
+      <c r="B344" s="1"/>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B345" s="3"/>
+      <c r="B345" s="1"/>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B346" s="3"/>
+      <c r="B346" s="1"/>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B347" s="3"/>
+      <c r="B347" s="1"/>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B348" s="3"/>
+      <c r="B348" s="1"/>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B349" s="3"/>
+      <c r="B349" s="1"/>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B350" s="3"/>
+      <c r="B350" s="1"/>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B351" s="3"/>
+      <c r="B351" s="1"/>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B352" s="3"/>
+      <c r="B352" s="1"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B353" s="3"/>
+      <c r="B353" s="1"/>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B354" s="3"/>
+      <c r="B354" s="1"/>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B355" s="3"/>
+      <c r="B355" s="1"/>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B356" s="3"/>
+      <c r="B356" s="1"/>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B357" s="3"/>
+      <c r="B357" s="1"/>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B358" s="3"/>
+      <c r="B358" s="1"/>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B359" s="3"/>
+      <c r="B359" s="1"/>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B360" s="3"/>
+      <c r="B360" s="1"/>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B361" s="3"/>
+      <c r="B361" s="1"/>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B362" s="3"/>
+      <c r="B362" s="1"/>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B363" s="3"/>
+      <c r="B363" s="1"/>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B364" s="3"/>
+      <c r="B364" s="1"/>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B365" s="3"/>
+      <c r="B365" s="1"/>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B366" s="3"/>
+      <c r="B366" s="1"/>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B367" s="3"/>
+      <c r="B367" s="1"/>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B368" s="3"/>
+      <c r="B368" s="1"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B369" s="3"/>
+      <c r="B369" s="1"/>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B370" s="3"/>
+      <c r="B370" s="1"/>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B371" s="3"/>
+      <c r="B371" s="1"/>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B372" s="3"/>
+      <c r="B372" s="1"/>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B373" s="3"/>
+      <c r="B373" s="1"/>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B374" s="3"/>
+      <c r="B374" s="1"/>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B375" s="3"/>
+      <c r="B375" s="1"/>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B376" s="3"/>
+      <c r="B376" s="1"/>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B377" s="3"/>
+      <c r="B377" s="1"/>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B378" s="3"/>
+      <c r="B378" s="1"/>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B379" s="3"/>
+      <c r="B379" s="1"/>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B380" s="3"/>
+      <c r="B380" s="1"/>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B381" s="3"/>
+      <c r="B381" s="1"/>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B382" s="3"/>
+      <c r="B382" s="1"/>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B383" s="3"/>
+      <c r="B383" s="1"/>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B384" s="3"/>
+      <c r="B384" s="1"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B385" s="3"/>
+      <c r="B385" s="1"/>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B386" s="3"/>
+      <c r="B386" s="1"/>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B387" s="3"/>
+      <c r="B387" s="1"/>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B388" s="3"/>
+      <c r="B388" s="1"/>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B389" s="3"/>
+      <c r="B389" s="1"/>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B390" s="3"/>
+      <c r="B390" s="1"/>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B391" s="3"/>
+      <c r="B391" s="1"/>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B392" s="3"/>
+      <c r="B392" s="1"/>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B393" s="3"/>
+      <c r="B393" s="1"/>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B394" s="3"/>
+      <c r="B394" s="1"/>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B395" s="3"/>
+      <c r="B395" s="1"/>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B396" s="3"/>
+      <c r="B396" s="1"/>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B397" s="3"/>
+      <c r="B397" s="1"/>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B398" s="3"/>
+      <c r="B398" s="1"/>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B399" s="3"/>
+      <c r="B399" s="1"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B400" s="3"/>
+      <c r="B400" s="1"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B401" s="3"/>
+      <c r="B401" s="1"/>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B402" s="3"/>
+      <c r="B402" s="1"/>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B403" s="3"/>
+      <c r="B403" s="1"/>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B404" s="3"/>
+      <c r="B404" s="1"/>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B405" s="3"/>
+      <c r="B405" s="1"/>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B406" s="3"/>
+      <c r="B406" s="1"/>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B407" s="3"/>
+      <c r="B407" s="1"/>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B408" s="3"/>
+      <c r="B408" s="1"/>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B409" s="3"/>
+      <c r="B409" s="1"/>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B410" s="3"/>
+      <c r="B410" s="1"/>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B411" s="3"/>
+      <c r="B411" s="1"/>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B412" s="3"/>
+      <c r="B412" s="1"/>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B413" s="3"/>
+      <c r="B413" s="1"/>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B414" s="3"/>
+      <c r="B414" s="1"/>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B415" s="3"/>
+      <c r="B415" s="1"/>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B416" s="3"/>
+      <c r="B416" s="1"/>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B417" s="3"/>
+      <c r="B417" s="1"/>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B418" s="3"/>
+      <c r="B418" s="1"/>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B419" s="3"/>
+      <c r="B419" s="1"/>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B420" s="3"/>
+      <c r="B420" s="1"/>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B421" s="3"/>
+      <c r="B421" s="1"/>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B422" s="3"/>
+      <c r="B422" s="1"/>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B423" s="3"/>
+      <c r="B423" s="1"/>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B424" s="3"/>
+      <c r="B424" s="1"/>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B425" s="3"/>
+      <c r="B425" s="1"/>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B426" s="3"/>
+      <c r="B426" s="1"/>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B427" s="3"/>
+      <c r="B427" s="1"/>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B428" s="3"/>
+      <c r="B428" s="1"/>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B429" s="3"/>
+      <c r="B429" s="1"/>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B430" s="3"/>
+      <c r="B430" s="1"/>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B431" s="3"/>
+      <c r="B431" s="1"/>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B432" s="3"/>
+      <c r="B432" s="1"/>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B433" s="3"/>
+      <c r="B433" s="1"/>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B434" s="3"/>
+      <c r="B434" s="1"/>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B435" s="3"/>
+      <c r="B435" s="1"/>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B436" s="3"/>
+      <c r="B436" s="1"/>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B437" s="3"/>
+      <c r="B437" s="1"/>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B438" s="3"/>
+      <c r="B438" s="1"/>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B439" s="3"/>
+      <c r="B439" s="1"/>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B440" s="3"/>
+      <c r="B440" s="1"/>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B441" s="3"/>
+      <c r="B441" s="1"/>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B442" s="3"/>
+      <c r="B442" s="1"/>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B443" s="3"/>
+      <c r="B443" s="1"/>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B444" s="3"/>
+      <c r="B444" s="1"/>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B445" s="3"/>
+      <c r="B445" s="1"/>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B446" s="3"/>
+      <c r="B446" s="1"/>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B447" s="3"/>
+      <c r="B447" s="1"/>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B448" s="3"/>
+      <c r="B448" s="1"/>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B449" s="3"/>
+      <c r="B449" s="1"/>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B450" s="3"/>
+      <c r="B450" s="1"/>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B451" s="3"/>
+      <c r="B451" s="1"/>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B452" s="3"/>
+      <c r="B452" s="1"/>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B453" s="3"/>
+      <c r="B453" s="1"/>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B454" s="3"/>
+      <c r="B454" s="1"/>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B455" s="3"/>
+      <c r="B455" s="1"/>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B456" s="3"/>
+      <c r="B456" s="1"/>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B457" s="3"/>
+      <c r="B457" s="1"/>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B458" s="3"/>
+      <c r="B458" s="1"/>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B459" s="3"/>
+      <c r="B459" s="1"/>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B460" s="3"/>
+      <c r="B460" s="1"/>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B461" s="3"/>
+      <c r="B461" s="1"/>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B462" s="3"/>
+      <c r="B462" s="1"/>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B463" s="3"/>
+      <c r="B463" s="1"/>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B464" s="3"/>
+      <c r="B464" s="1"/>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B465" s="3"/>
+      <c r="B465" s="1"/>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B466" s="3"/>
+      <c r="B466" s="1"/>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B467" s="3"/>
+      <c r="B467" s="1"/>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B468" s="3"/>
+      <c r="B468" s="1"/>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B469" s="3"/>
+      <c r="B469" s="1"/>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B470" s="3"/>
-    </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B471" s="3"/>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B472" s="3"/>
-    </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B473" s="3"/>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B474" s="3"/>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B475" s="3"/>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B476" s="3"/>
-    </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B477" s="3"/>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B478" s="3"/>
-    </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B479" s="3"/>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B480" s="3"/>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B481" s="3"/>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B482" s="3"/>
+      <c r="B470" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting" xr:uid="{C3770CB4-E37A-2841-8D1F-5ED298614624}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56159C57-F183-5243-AF4C-9EA5FAE4D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E876A5-0592-2046-A9E1-7F3836833FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="455">
   <si>
     <t>urso</t>
   </si>
@@ -1368,22 +1368,40 @@
     <t>rivera</t>
   </si>
   <si>
-    <t>/academic-program-finder/mba-41</t>
-  </si>
-  <si>
-    <t>/hr/performance-management%C2%A0tools-resources</t>
-  </si>
-  <si>
     <t>CPT</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>VD</t>
-  </si>
-  <si>
     <t>Slug</t>
+  </si>
+  <si>
+    <t>Basic Page</t>
+  </si>
+  <si>
+    <t>/academics/accelerated-masters-history-or-cultural-studies</t>
+  </si>
+  <si>
+    <t>/aac/forms-and-documents</t>
+  </si>
+  <si>
+    <t>/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</t>
+  </si>
+  <si>
+    <t>/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</t>
+  </si>
+  <si>
+    <t>/academics/medieval-studies-minor</t>
+  </si>
+  <si>
+    <t>/accessibility-office/appealsgrievance-process</t>
+  </si>
+  <si>
+    <t>/accessibility-office/accessing-services</t>
+  </si>
+  <si>
+    <t>/accessibility-office/definitions</t>
+  </si>
+  <si>
+    <t>/accessibility-office/documentation-criteria</t>
   </si>
 </sst>
 </file>
@@ -1751,10 +1769,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B470"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1765,48 +1783,83 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" t="s">
         <v>446</v>
-      </c>
-      <c r="B2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" t="s">
         <v>447</v>
       </c>
-      <c r="B3" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
@@ -2638,555 +2691,6 @@
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" s="1"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B288" s="1"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B289" s="1"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" s="1"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B291" s="1"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="1"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B293" s="1"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B294" s="1"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B295" s="1"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B296" s="1"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B297" s="1"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B298" s="1"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B299" s="1"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B300" s="1"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B301" s="1"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B302" s="1"/>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B303" s="1"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B304" s="1"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B305" s="1"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B306" s="1"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B307" s="1"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B308" s="1"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B309" s="1"/>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B310" s="1"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B311" s="1"/>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B312" s="1"/>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B313" s="1"/>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B314" s="1"/>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B315" s="1"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B316" s="1"/>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B317" s="1"/>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B318" s="1"/>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B319" s="1"/>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B320" s="1"/>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B321" s="1"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B322" s="1"/>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B323" s="1"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B324" s="1"/>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B325" s="1"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B326" s="1"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B327" s="1"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B328" s="1"/>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B329" s="1"/>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B330" s="1"/>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B331" s="1"/>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B332" s="1"/>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B333" s="1"/>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B334" s="1"/>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B335" s="1"/>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B336" s="1"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B337" s="1"/>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B338" s="1"/>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B339" s="1"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B340" s="1"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B341" s="1"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B342" s="1"/>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B343" s="1"/>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B345" s="1"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B346" s="1"/>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B347" s="1"/>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B348" s="1"/>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B349" s="1"/>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B351" s="1"/>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B352" s="1"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B355" s="1"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B356" s="1"/>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B357" s="1"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B358" s="1"/>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B359" s="1"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B360" s="1"/>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B361" s="1"/>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B362" s="1"/>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B364" s="1"/>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B365" s="1"/>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B366" s="1"/>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B367" s="1"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B368" s="1"/>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B369" s="1"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B370" s="1"/>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B371" s="1"/>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B372" s="1"/>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B373" s="1"/>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B374" s="1"/>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B375" s="1"/>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B376" s="1"/>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B377" s="1"/>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B378" s="1"/>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B379" s="1"/>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B380" s="1"/>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B381" s="1"/>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B382" s="1"/>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B383" s="1"/>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B384" s="1"/>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B385" s="1"/>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B386" s="1"/>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B387" s="1"/>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B388" s="1"/>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B389" s="1"/>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B390" s="1"/>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B391" s="1"/>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B392" s="1"/>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B393" s="1"/>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B394" s="1"/>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B395" s="1"/>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B396" s="1"/>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B397" s="1"/>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B398" s="1"/>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B399" s="1"/>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B400" s="1"/>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B401" s="1"/>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B402" s="1"/>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B403" s="1"/>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B404" s="1"/>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B405" s="1"/>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B406" s="1"/>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B407" s="1"/>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B408" s="1"/>
-    </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B409" s="1"/>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B410" s="1"/>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B411" s="1"/>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B412" s="1"/>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B413" s="1"/>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B414" s="1"/>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B415" s="1"/>
-    </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B416" s="1"/>
-    </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B417" s="1"/>
-    </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B418" s="1"/>
-    </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B419" s="1"/>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B420" s="1"/>
-    </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B421" s="1"/>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B422" s="1"/>
-    </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B423" s="1"/>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B424" s="1"/>
-    </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B425" s="1"/>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B426" s="1"/>
-    </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B427" s="1"/>
-    </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B428" s="1"/>
-    </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B429" s="1"/>
-    </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B430" s="1"/>
-    </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B431" s="1"/>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B432" s="1"/>
-    </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B433" s="1"/>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B434" s="1"/>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B435" s="1"/>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B436" s="1"/>
-    </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B437" s="1"/>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B438" s="1"/>
-    </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B439" s="1"/>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B440" s="1"/>
-    </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B441" s="1"/>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B442" s="1"/>
-    </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B443" s="1"/>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B444" s="1"/>
-    </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B445" s="1"/>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B446" s="1"/>
-    </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B447" s="1"/>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B448" s="1"/>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B449" s="1"/>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B450" s="1"/>
-    </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B451" s="1"/>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B452" s="1"/>
-    </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B453" s="1"/>
-    </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B454" s="1"/>
-    </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B455" s="1"/>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B456" s="1"/>
-    </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B457" s="1"/>
-    </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B458" s="1"/>
-    </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B459" s="1"/>
-    </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B460" s="1"/>
-    </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B461" s="1"/>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B462" s="1"/>
-    </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B463" s="1"/>
-    </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B464" s="1"/>
-    </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B465" s="1"/>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B466" s="1"/>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B467" s="1"/>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B468" s="1"/>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B469" s="1"/>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B470" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E876A5-0592-2046-A9E1-7F3836833FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FADA82-46BC-8B45-BAC2-924830962557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="448">
   <si>
     <t>urso</t>
   </si>
@@ -1374,41 +1374,20 @@
     <t>Slug</t>
   </si>
   <si>
-    <t>Basic Page</t>
-  </si>
-  <si>
-    <t>/academics/accelerated-masters-history-or-cultural-studies</t>
-  </si>
-  <si>
-    <t>/aac/forms-and-documents</t>
-  </si>
-  <si>
-    <t>/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</t>
-  </si>
-  <si>
-    <t>/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</t>
-  </si>
-  <si>
-    <t>/academics/medieval-studies-minor</t>
-  </si>
-  <si>
-    <t>/accessibility-office/appealsgrievance-process</t>
-  </si>
-  <si>
-    <t>/accessibility-office/accessing-services</t>
-  </si>
-  <si>
-    <t>/accessibility-office/definitions</t>
-  </si>
-  <si>
-    <t>/accessibility-office/documentation-criteria</t>
+    <t>/writing-program/writing-learning-center</t>
+  </si>
+  <si>
+    <t>gfg</t>
+  </si>
+  <si>
+    <t>academic-program-finder/mba-41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,6 +1397,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1456,16 +1457,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1771,784 +1777,975 @@
   </sheetPr>
   <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.5" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>445</v>
       </c>
       <c r="B3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B4" t="s">
-        <v>448</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B5" t="s">
-        <v>449</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B6" t="s">
-        <v>450</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" t="s">
-        <v>451</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B8" t="s">
-        <v>452</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>445</v>
-      </c>
-      <c r="B9" t="s">
-        <v>453</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B10" t="s">
-        <v>454</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="2"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="2"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="2"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="2"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="2"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="2"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="2"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="2"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="2"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="2"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="2"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="2"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="2"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="2"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="2"/>
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="2"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="2"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="2"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="2"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="2"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="2"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="2"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="2"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="2"/>
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="2"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="2"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="2"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="2"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="4"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="4"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" s="4"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="4"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="4"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="4"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="4"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="4"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="4"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="4"/>
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
@@ -2693,6 +2890,9 @@
       <c r="B287" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="https://www.geneseo.edu/writing-program/writing-learning-center" display="https://www.geneseo.edu/writing-program/writing-learning-center" xr:uid="{D6A2F2F8-65F9-534C-83F1-65DC7B2357D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\purva\Desktop\SunyGeneseoPlaywright\SunyGeneseoPlaywright\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FADA82-46BC-8B45-BAC2-924830962557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C92596-72E5-4EF8-9DCC-48BD854E5FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="449">
   <si>
     <t>urso</t>
   </si>
@@ -1374,13 +1377,16 @@
     <t>Slug</t>
   </si>
   <si>
-    <t>/writing-program/writing-learning-center</t>
-  </si>
-  <si>
-    <t>gfg</t>
-  </si>
-  <si>
-    <t>academic-program-finder/mba-41</t>
+    <t>/alumni/get-involved</t>
+  </si>
+  <si>
+    <t>/accessibility-office/genio-formerly-glean</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>dvds</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1469,6 +1475,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1778,16 +1787,16 @@
   <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.5" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>443</v>
       </c>
@@ -1795,1104 +1804,1101 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>446</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
         <v>446</v>
       </c>
-      <c r="B3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="5"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="5"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="5"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="5"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="5"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2"/>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2"/>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2"/>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2"/>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="5"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2"/>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="5"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="5"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="5"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="5"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="5"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="5"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="5"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="2"/>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="5"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="5"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="5"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2"/>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="5"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2"/>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="5"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="5"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="2"/>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="5"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="5"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="5"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="5"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="2"/>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="5"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="2"/>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="5"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2"/>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="5"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="2"/>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="5"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="2"/>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="5"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="2"/>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="5"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="2"/>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="5"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2"/>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="2"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="5"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="2"/>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="5"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="2"/>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="5"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="2"/>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="5"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="2"/>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="5"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="2"/>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="5"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="2"/>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="5"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2"/>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="5"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="2"/>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="5"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="2"/>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="5"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="2"/>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="5"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="2"/>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="5"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="2"/>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="5"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="2"/>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="5"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="2"/>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="5"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="2"/>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="5"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="2"/>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="5"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="2"/>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="5"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="2"/>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="5"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="2"/>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="5"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="2"/>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="5"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="2"/>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="5"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="2"/>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="5"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="2"/>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="5"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="2"/>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="5"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="2"/>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="5"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="2"/>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="5"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="2"/>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="5"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="2"/>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="5"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="2"/>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="5"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="2"/>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="5"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="2"/>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="5"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="2"/>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="5"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="2"/>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="5"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="2"/>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="5"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="2"/>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="5"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="2"/>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="5"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="2"/>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="5"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="2"/>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="5"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="2"/>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="5"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="2"/>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="5"/>
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="2"/>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="5"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="2"/>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="5"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="2"/>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="5"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="2"/>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="5"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2"/>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="5"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="2"/>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="5"/>
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="2"/>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="5"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="2"/>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="5"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2"/>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="5"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="2"/>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="5"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="2"/>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="5"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="2"/>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="5"/>
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="2"/>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="5"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="2"/>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="5"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="2"/>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="5"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="2"/>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="5"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="2"/>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="5"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="2"/>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="5"/>
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="2"/>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="5"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="2"/>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="5"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="2"/>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="5"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="2"/>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="5"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="2"/>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="5"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="2"/>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="5"/>
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="2"/>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="5"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="2"/>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="5"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="2"/>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="5"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="2"/>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="5"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="https://www.geneseo.edu/writing-program/writing-learning-center" display="https://www.geneseo.edu/writing-program/writing-learning-center" xr:uid="{D6A2F2F8-65F9-534C-83F1-65DC7B2357D8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2905,12 +2911,12 @@
       <selection activeCell="A466" sqref="A466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3190,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3206,7 +3212,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>44</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>46</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>46</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>46</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>48</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>50</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -3652,7 +3658,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>55</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>55</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>55</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>55</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>56</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>56</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>57</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -3788,7 +3794,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -3820,7 +3826,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>61</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>62</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>63</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -3916,7 +3922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>65</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>66</v>
       </c>
@@ -3940,7 +3946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>68</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>68</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>68</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>68</v>
       </c>
@@ -3972,7 +3978,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>69</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>71</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>71</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -4004,7 +4010,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>72</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>72</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>72</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>73</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>73</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>73</v>
       </c>
@@ -4060,7 +4066,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>74</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>75</v>
       </c>
@@ -4084,7 +4090,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>75</v>
       </c>
@@ -4092,7 +4098,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>76</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -4108,7 +4114,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>76</v>
       </c>
@@ -4116,7 +4122,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>77</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>78</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>80</v>
       </c>
@@ -4140,7 +4146,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>80</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>81</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>83</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>85</v>
       </c>
@@ -4172,7 +4178,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>87</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -4196,7 +4202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>91</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>91</v>
       </c>
@@ -4244,7 +4250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -4252,7 +4258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>93</v>
       </c>
@@ -4260,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>93</v>
       </c>
@@ -4276,7 +4282,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>93</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>93</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>93</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>93</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>93</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>93</v>
       </c>
@@ -4324,7 +4330,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>93</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>93</v>
       </c>
@@ -4340,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>94</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>96</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>96</v>
       </c>
@@ -4364,7 +4370,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>97</v>
       </c>
@@ -4372,7 +4378,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>97</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>98</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>99</v>
       </c>
@@ -4396,7 +4402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>100</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -4420,12 +4426,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>102</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>102</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>103</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>103</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>104</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>104</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>104</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>105</v>
       </c>
@@ -4497,7 +4503,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>105</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>105</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>106</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>107</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>108</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>110</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>112</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>112</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>113</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>113</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>113</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>113</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>113</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>114</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>116</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>116</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>117</v>
       </c>
@@ -4633,7 +4639,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>117</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>118</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>118</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>118</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>118</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>119</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>119</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>119</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>119</v>
       </c>
@@ -4705,7 +4711,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>119</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>119</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>119</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>120</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>120</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>120</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>121</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>121</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>122</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>122</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>122</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>123</v>
       </c>
@@ -4801,7 +4807,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>123</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>124</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>124</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>125</v>
       </c>
@@ -4833,7 +4839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>126</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>127</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>127</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>127</v>
       </c>
@@ -4873,7 +4879,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>128</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>130</v>
       </c>
@@ -4889,7 +4895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>132</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>134</v>
       </c>
@@ -4905,7 +4911,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>134</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>134</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>135</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>137</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>139</v>
       </c>
@@ -4945,7 +4951,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>141</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>141</v>
       </c>
@@ -4961,7 +4967,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>142</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>142</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>142</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>142</v>
       </c>
@@ -4993,7 +4999,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>142</v>
       </c>
@@ -5001,7 +5007,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>142</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>143</v>
       </c>
@@ -5017,7 +5023,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>143</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>144</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>146</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>148</v>
       </c>
@@ -5049,7 +5055,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>150</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>150</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>150</v>
       </c>
@@ -5073,7 +5079,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>151</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>153</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>153</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>154</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>155</v>
       </c>
@@ -5121,7 +5127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>156</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>156</v>
       </c>
@@ -5137,7 +5143,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>157</v>
       </c>
@@ -5145,7 +5151,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>157</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>158</v>
       </c>
@@ -5161,7 +5167,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>158</v>
       </c>
@@ -5169,7 +5175,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>159</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>159</v>
       </c>
@@ -5185,7 +5191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>160</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>160</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>161</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>162</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>162</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>162</v>
       </c>
@@ -5233,7 +5239,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>163</v>
       </c>
@@ -5241,7 +5247,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>163</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>163</v>
       </c>
@@ -5257,7 +5263,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>163</v>
       </c>
@@ -5265,7 +5271,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>163</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>163</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>163</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>164</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>164</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>165</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>165</v>
       </c>
@@ -5321,7 +5327,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>165</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>165</v>
       </c>
@@ -5337,7 +5343,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>166</v>
       </c>
@@ -5345,7 +5351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>166</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>166</v>
       </c>
@@ -5361,7 +5367,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>166</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>166</v>
       </c>
@@ -5377,7 +5383,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>167</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>167</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>168</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>169</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>169</v>
       </c>
@@ -5417,7 +5423,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>169</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>169</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>169</v>
       </c>
@@ -5441,7 +5447,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>170</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>170</v>
       </c>
@@ -5457,7 +5463,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>170</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>170</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>171</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>171</v>
       </c>
@@ -5489,7 +5495,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>172</v>
       </c>
@@ -5497,7 +5503,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>174</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>174</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>175</v>
       </c>
@@ -5521,7 +5527,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>175</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>175</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>175</v>
       </c>
@@ -5545,7 +5551,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>176</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>178</v>
       </c>
@@ -5561,7 +5567,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>178</v>
       </c>
@@ -5569,7 +5575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>178</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>178</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>178</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>178</v>
       </c>
@@ -5601,7 +5607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>178</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>178</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>178</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>178</v>
       </c>
@@ -5633,7 +5639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>179</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>179</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>180</v>
       </c>
@@ -5657,7 +5663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>181</v>
       </c>
@@ -5665,7 +5671,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>181</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>182</v>
       </c>
@@ -5681,7 +5687,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>182</v>
       </c>
@@ -5689,7 +5695,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>183</v>
       </c>
@@ -5697,7 +5703,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>183</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>183</v>
       </c>
@@ -5713,7 +5719,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>183</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>183</v>
       </c>
@@ -5729,7 +5735,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>183</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>183</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>184</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>185</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>187</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>187</v>
       </c>
@@ -5785,7 +5791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>187</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>187</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>187</v>
       </c>
@@ -5809,7 +5815,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>187</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>188</v>
       </c>
@@ -5825,7 +5831,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>188</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>189</v>
       </c>
@@ -5841,7 +5847,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>189</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>190</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>191</v>
       </c>
@@ -5865,7 +5871,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>191</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>191</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>191</v>
       </c>
@@ -5889,7 +5895,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>192</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>192</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>192</v>
       </c>
@@ -5913,7 +5919,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>193</v>
       </c>
@@ -5929,7 +5935,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>193</v>
       </c>
@@ -5937,7 +5943,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>194</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>196</v>
       </c>
@@ -5953,7 +5959,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>196</v>
       </c>
@@ -5961,7 +5967,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>196</v>
       </c>
@@ -5969,7 +5975,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>197</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>197</v>
       </c>
@@ -5985,7 +5991,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>197</v>
       </c>
@@ -5993,7 +5999,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>197</v>
       </c>
@@ -6001,7 +6007,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>197</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>197</v>
       </c>
@@ -6017,7 +6023,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>198</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>198</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>198</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>198</v>
       </c>
@@ -6049,7 +6055,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>199</v>
       </c>
@@ -6057,7 +6063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>200</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>202</v>
       </c>
@@ -6073,7 +6079,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>204</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>206</v>
       </c>
@@ -6089,7 +6095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>206</v>
       </c>
@@ -6097,7 +6103,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>206</v>
       </c>
@@ -6105,7 +6111,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>207</v>
       </c>
@@ -6113,7 +6119,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>207</v>
       </c>
@@ -6121,7 +6127,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>207</v>
       </c>
@@ -6129,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>207</v>
       </c>
@@ -6137,7 +6143,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>207</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>207</v>
       </c>
@@ -6153,7 +6159,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>208</v>
       </c>
@@ -6161,7 +6167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>210</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>210</v>
       </c>
@@ -6177,7 +6183,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>210</v>
       </c>
@@ -6185,7 +6191,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>211</v>
       </c>
@@ -6193,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>212</v>
       </c>
@@ -6201,7 +6207,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>212</v>
       </c>
@@ -6209,7 +6215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>213</v>
       </c>
@@ -6217,7 +6223,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>213</v>
       </c>
@@ -6225,7 +6231,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>213</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>214</v>
       </c>
@@ -6241,7 +6247,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>216</v>
       </c>
@@ -6249,7 +6255,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>216</v>
       </c>
@@ -6257,7 +6263,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>217</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>217</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>217</v>
       </c>
@@ -6281,7 +6287,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>218</v>
       </c>
@@ -6289,7 +6295,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>218</v>
       </c>
@@ -6297,7 +6303,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>219</v>
       </c>
@@ -6305,7 +6311,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>219</v>
       </c>
@@ -6313,7 +6319,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>219</v>
       </c>
@@ -6321,7 +6327,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>219</v>
       </c>
@@ -6329,7 +6335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>219</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>220</v>
       </c>
@@ -6345,7 +6351,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>221</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>223</v>
       </c>
@@ -6361,7 +6367,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>225</v>
       </c>
@@ -6369,7 +6375,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>225</v>
       </c>
@@ -6377,7 +6383,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>226</v>
       </c>
@@ -6385,7 +6391,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>226</v>
       </c>
@@ -6393,7 +6399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>227</v>
       </c>
@@ -6401,7 +6407,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>227</v>
       </c>
@@ -6409,7 +6415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>227</v>
       </c>
@@ -6417,7 +6423,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>227</v>
       </c>
@@ -6425,7 +6431,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>227</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>227</v>
       </c>
@@ -6441,7 +6447,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>227</v>
       </c>
@@ -6449,7 +6455,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>227</v>
       </c>
@@ -6457,7 +6463,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>227</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>228</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>230</v>
       </c>
@@ -6481,7 +6487,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>230</v>
       </c>
@@ -6489,7 +6495,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>231</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>232</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>232</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>232</v>
       </c>
@@ -6521,7 +6527,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>232</v>
       </c>
@@ -6529,7 +6535,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>232</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>232</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>232</v>
       </c>
@@ -6553,7 +6559,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>233</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>233</v>
       </c>
@@ -6569,7 +6575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>233</v>
       </c>
@@ -6577,7 +6583,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>234</v>
       </c>
@@ -6585,7 +6591,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>236</v>
       </c>
@@ -6593,7 +6599,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>236</v>
       </c>
@@ -6601,7 +6607,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>237</v>
       </c>
@@ -6609,7 +6615,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>237</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>237</v>
       </c>
@@ -6625,7 +6631,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>238</v>
       </c>
@@ -6633,7 +6639,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>238</v>
       </c>
@@ -6641,7 +6647,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>239</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>241</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>241</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>242</v>
       </c>
@@ -6673,7 +6679,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>242</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>243</v>
       </c>
@@ -6689,7 +6695,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>243</v>
       </c>
@@ -6697,7 +6703,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>244</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>244</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>244</v>
       </c>
@@ -6721,7 +6727,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>245</v>
       </c>
@@ -6729,7 +6735,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>245</v>
       </c>
@@ -6737,7 +6743,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>246</v>
       </c>
@@ -6745,7 +6751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>246</v>
       </c>
@@ -6753,7 +6759,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>247</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>247</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>247</v>
       </c>
@@ -6777,7 +6783,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>248</v>
       </c>
@@ -6785,7 +6791,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>249</v>
       </c>
@@ -6793,7 +6799,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>251</v>
       </c>
@@ -6801,7 +6807,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>251</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>251</v>
       </c>
@@ -6817,7 +6823,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>251</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>252</v>
       </c>
@@ -6833,7 +6839,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>254</v>
       </c>
@@ -6841,7 +6847,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>254</v>
       </c>
@@ -6849,7 +6855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>255</v>
       </c>
@@ -6857,7 +6863,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>257</v>
       </c>

--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\purva\Desktop\SunyGeneseoPlaywright\SunyGeneseoPlaywright\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C92596-72E5-4EF8-9DCC-48BD854E5FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90850C9-BE48-4E4F-9F68-989E6965AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,15 +32,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="447">
   <si>
     <t>urso</t>
   </si>
@@ -1380,13 +1377,7 @@
     <t>/alumni/get-involved</t>
   </si>
   <si>
-    <t>/accessibility-office/genio-formerly-glean</t>
-  </si>
-  <si>
     <t>basic</t>
-  </si>
-  <si>
-    <t>dvds</t>
   </si>
 </sst>
 </file>
@@ -1784,19 +1775,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>443</v>
       </c>
@@ -1804,1099 +1795,1091 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="5"/>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="2"/>
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A226" s="4"/>
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A236" s="4"/>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B286" s="1"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B287" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2911,12 +2894,12 @@
       <selection activeCell="A466" sqref="A466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2924,7 +2907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2932,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2940,7 +2923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2948,7 +2931,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2956,7 +2939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2964,7 +2947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2972,7 +2955,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2980,7 +2963,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2988,7 +2971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2996,7 +2979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3004,7 +2987,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3012,7 +2995,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3020,7 +3003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3028,7 +3011,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3036,7 +3019,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3027,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3052,7 +3035,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3060,7 +3043,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3068,7 +3051,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3076,7 +3059,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +3067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3092,7 +3075,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3100,7 +3083,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3108,7 +3091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3116,7 +3099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3124,7 +3107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3132,7 +3115,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3140,7 +3123,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3148,7 +3131,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -3156,7 +3139,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3164,7 +3147,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3172,7 +3155,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3180,7 +3163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3188,7 +3171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3196,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -3204,7 +3187,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3212,7 +3195,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -3220,7 +3203,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -3228,7 +3211,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -3236,7 +3219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -3244,7 +3227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -3252,7 +3235,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -3260,7 +3243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3268,7 +3251,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -3276,7 +3259,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -3284,7 +3267,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -3292,7 +3275,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -3300,7 +3283,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -3308,7 +3291,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3316,7 +3299,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3324,7 +3307,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -3332,7 +3315,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -3340,7 +3323,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -3348,7 +3331,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -3356,7 +3339,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -3364,7 +3347,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -3372,7 +3355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -3380,7 +3363,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -3388,7 +3371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -3396,7 +3379,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -3404,7 +3387,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -3412,7 +3395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -3420,7 +3403,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -3428,7 +3411,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -3436,7 +3419,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -3444,7 +3427,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -3452,7 +3435,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -3460,7 +3443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>44</v>
       </c>
@@ -3468,7 +3451,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -3476,7 +3459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -3484,7 +3467,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -3492,7 +3475,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -3500,7 +3483,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -3508,7 +3491,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -3516,7 +3499,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>46</v>
       </c>
@@ -3524,7 +3507,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -3532,7 +3515,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>46</v>
       </c>
@@ -3540,7 +3523,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>46</v>
       </c>
@@ -3548,7 +3531,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -3556,7 +3539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -3564,7 +3547,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -3572,7 +3555,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -3580,7 +3563,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>48</v>
       </c>
@@ -3588,7 +3571,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -3602,7 +3585,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -3610,7 +3593,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -3618,7 +3601,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>50</v>
       </c>
@@ -3626,7 +3609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -3634,7 +3617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -3642,7 +3625,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -3650,7 +3633,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -3658,7 +3641,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>55</v>
       </c>
@@ -3666,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -3674,7 +3657,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -3682,7 +3665,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>55</v>
       </c>
@@ -3690,7 +3673,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>55</v>
       </c>
@@ -3698,7 +3681,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>55</v>
       </c>
@@ -3706,7 +3689,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>56</v>
       </c>
@@ -3714,7 +3697,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -3722,7 +3705,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -3730,7 +3713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>56</v>
       </c>
@@ -3738,7 +3721,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -3746,7 +3729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -3754,7 +3737,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>57</v>
       </c>
@@ -3762,7 +3745,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -3770,7 +3753,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -3778,7 +3761,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -3786,7 +3769,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -3794,7 +3777,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -3802,7 +3785,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -3810,7 +3793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -3818,7 +3801,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -3826,7 +3809,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -3834,7 +3817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -3842,7 +3825,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -3850,7 +3833,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -3858,7 +3841,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -3866,7 +3849,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>61</v>
       </c>
@@ -3874,7 +3857,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -3882,7 +3865,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>61</v>
       </c>
@@ -3890,7 +3873,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>62</v>
       </c>
@@ -3898,7 +3881,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -3906,7 +3889,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>63</v>
       </c>
@@ -3914,7 +3897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -3922,7 +3905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>65</v>
       </c>
@@ -3930,7 +3913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -3938,7 +3921,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>66</v>
       </c>
@@ -3946,7 +3929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>68</v>
       </c>
@@ -3954,7 +3937,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>68</v>
       </c>
@@ -3962,7 +3945,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>68</v>
       </c>
@@ -3970,7 +3953,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>68</v>
       </c>
@@ -3978,7 +3961,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>69</v>
       </c>
@@ -3986,7 +3969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>71</v>
       </c>
@@ -3994,7 +3977,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>71</v>
       </c>
@@ -4002,7 +3985,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -4010,7 +3993,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>72</v>
       </c>
@@ -4018,7 +4001,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>72</v>
       </c>
@@ -4026,7 +4009,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>72</v>
       </c>
@@ -4034,7 +4017,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>73</v>
       </c>
@@ -4042,7 +4025,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -4050,7 +4033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>73</v>
       </c>
@@ -4058,7 +4041,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>73</v>
       </c>
@@ -4066,7 +4049,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -4074,7 +4057,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>74</v>
       </c>
@@ -4082,7 +4065,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>75</v>
       </c>
@@ -4090,7 +4073,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>75</v>
       </c>
@@ -4098,7 +4081,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>76</v>
       </c>
@@ -4106,7 +4089,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -4114,7 +4097,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>76</v>
       </c>
@@ -4122,7 +4105,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>77</v>
       </c>
@@ -4130,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>78</v>
       </c>
@@ -4138,7 +4121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>80</v>
       </c>
@@ -4146,7 +4129,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>80</v>
       </c>
@@ -4154,7 +4137,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>81</v>
       </c>
@@ -4162,7 +4145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>83</v>
       </c>
@@ -4170,7 +4153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>85</v>
       </c>
@@ -4178,7 +4161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>87</v>
       </c>
@@ -4186,7 +4169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -4194,7 +4177,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -4202,7 +4185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -4210,7 +4193,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -4218,7 +4201,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -4226,7 +4209,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -4234,7 +4217,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>91</v>
       </c>
@@ -4242,7 +4225,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>91</v>
       </c>
@@ -4250,7 +4233,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -4258,7 +4241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>93</v>
       </c>
@@ -4266,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -4274,7 +4257,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>93</v>
       </c>
@@ -4282,7 +4265,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>93</v>
       </c>
@@ -4290,7 +4273,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>93</v>
       </c>
@@ -4298,7 +4281,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>93</v>
       </c>
@@ -4306,7 +4289,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>93</v>
       </c>
@@ -4314,7 +4297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>93</v>
       </c>
@@ -4322,7 +4305,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>93</v>
       </c>
@@ -4330,7 +4313,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>93</v>
       </c>
@@ -4338,7 +4321,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>93</v>
       </c>
@@ -4346,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>94</v>
       </c>
@@ -4354,7 +4337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>96</v>
       </c>
@@ -4362,7 +4345,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>96</v>
       </c>
@@ -4370,7 +4353,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>97</v>
       </c>
@@ -4378,7 +4361,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>97</v>
       </c>
@@ -4386,7 +4369,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>98</v>
       </c>
@@ -4394,7 +4377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>99</v>
       </c>
@@ -4402,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>100</v>
       </c>
@@ -4410,7 +4393,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -4418,7 +4401,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -4426,12 +4409,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>102</v>
       </c>
@@ -4439,7 +4422,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>102</v>
       </c>
@@ -4447,7 +4430,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>103</v>
       </c>
@@ -4455,7 +4438,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>103</v>
       </c>
@@ -4463,7 +4446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>104</v>
       </c>
@@ -4471,7 +4454,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>104</v>
       </c>
@@ -4479,7 +4462,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>104</v>
       </c>
@@ -4487,7 +4470,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -4495,7 +4478,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>105</v>
       </c>
@@ -4503,7 +4486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>105</v>
       </c>
@@ -4511,7 +4494,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>105</v>
       </c>
@@ -4519,7 +4502,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>106</v>
       </c>
@@ -4527,7 +4510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>107</v>
       </c>
@@ -4535,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>108</v>
       </c>
@@ -4543,7 +4526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>110</v>
       </c>
@@ -4551,7 +4534,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>112</v>
       </c>
@@ -4559,7 +4542,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>112</v>
       </c>
@@ -4567,7 +4550,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>113</v>
       </c>
@@ -4575,7 +4558,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>113</v>
       </c>
@@ -4583,7 +4566,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>113</v>
       </c>
@@ -4591,7 +4574,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>113</v>
       </c>
@@ -4599,7 +4582,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>113</v>
       </c>
@@ -4607,7 +4590,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>114</v>
       </c>
@@ -4615,7 +4598,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>116</v>
       </c>
@@ -4623,7 +4606,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>116</v>
       </c>
@@ -4631,7 +4614,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>117</v>
       </c>
@@ -4639,7 +4622,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>117</v>
       </c>
@@ -4647,7 +4630,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>118</v>
       </c>
@@ -4655,7 +4638,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>118</v>
       </c>
@@ -4663,7 +4646,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>118</v>
       </c>
@@ -4671,7 +4654,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>118</v>
       </c>
@@ -4679,7 +4662,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>119</v>
       </c>
@@ -4687,7 +4670,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>119</v>
       </c>
@@ -4695,7 +4678,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>119</v>
       </c>
@@ -4703,7 +4686,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>119</v>
       </c>
@@ -4711,7 +4694,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>119</v>
       </c>
@@ -4719,7 +4702,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>119</v>
       </c>
@@ -4727,7 +4710,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>119</v>
       </c>
@@ -4735,7 +4718,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>120</v>
       </c>
@@ -4743,7 +4726,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>120</v>
       </c>
@@ -4751,7 +4734,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>120</v>
       </c>
@@ -4759,7 +4742,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>121</v>
       </c>
@@ -4767,7 +4750,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>121</v>
       </c>
@@ -4775,7 +4758,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>122</v>
       </c>
@@ -4783,7 +4766,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>122</v>
       </c>
@@ -4791,7 +4774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>122</v>
       </c>
@@ -4799,7 +4782,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>123</v>
       </c>
@@ -4807,7 +4790,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>123</v>
       </c>
@@ -4815,7 +4798,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>124</v>
       </c>
@@ -4823,7 +4806,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>124</v>
       </c>
@@ -4831,7 +4814,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>125</v>
       </c>
@@ -4839,7 +4822,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -4847,7 +4830,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>126</v>
       </c>
@@ -4855,7 +4838,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>127</v>
       </c>
@@ -4863,7 +4846,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>127</v>
       </c>
@@ -4871,7 +4854,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>127</v>
       </c>
@@ -4879,7 +4862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>128</v>
       </c>
@@ -4887,7 +4870,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>130</v>
       </c>
@@ -4895,7 +4878,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>132</v>
       </c>
@@ -4903,7 +4886,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>134</v>
       </c>
@@ -4911,7 +4894,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>134</v>
       </c>
@@ -4919,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>134</v>
       </c>
@@ -4927,7 +4910,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>135</v>
       </c>
@@ -4935,7 +4918,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>137</v>
       </c>
@@ -4943,7 +4926,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>139</v>
       </c>
@@ -4951,7 +4934,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>141</v>
       </c>
@@ -4959,7 +4942,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>141</v>
       </c>
@@ -4967,7 +4950,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>142</v>
       </c>
@@ -4975,7 +4958,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>142</v>
       </c>
@@ -4983,7 +4966,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>142</v>
       </c>
@@ -4991,7 +4974,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>142</v>
       </c>
@@ -4999,7 +4982,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>142</v>
       </c>
@@ -5007,7 +4990,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>142</v>
       </c>
@@ -5015,7 +4998,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>143</v>
       </c>
@@ -5023,7 +5006,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>143</v>
       </c>
@@ -5031,7 +5014,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>144</v>
       </c>
@@ -5039,7 +5022,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>146</v>
       </c>
@@ -5047,7 +5030,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>148</v>
       </c>
@@ -5055,7 +5038,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>150</v>
       </c>
@@ -5063,7 +5046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>150</v>
       </c>
@@ -5071,7 +5054,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>150</v>
       </c>
@@ -5079,7 +5062,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>151</v>
       </c>
@@ -5087,7 +5070,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>153</v>
       </c>
@@ -5095,7 +5078,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -5103,7 +5086,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>153</v>
       </c>
@@ -5111,7 +5094,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>154</v>
       </c>
@@ -5119,7 +5102,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>155</v>
       </c>
@@ -5127,7 +5110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>156</v>
       </c>
@@ -5135,7 +5118,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>156</v>
       </c>
@@ -5143,7 +5126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>157</v>
       </c>
@@ -5151,7 +5134,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>157</v>
       </c>
@@ -5159,7 +5142,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>158</v>
       </c>
@@ -5167,7 +5150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>158</v>
       </c>
@@ -5175,7 +5158,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>159</v>
       </c>
@@ -5183,7 +5166,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>159</v>
       </c>
@@ -5191,7 +5174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>160</v>
       </c>
@@ -5199,7 +5182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>160</v>
       </c>
@@ -5207,7 +5190,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>161</v>
       </c>
@@ -5215,7 +5198,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>162</v>
       </c>
@@ -5223,7 +5206,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>162</v>
       </c>
@@ -5231,7 +5214,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>162</v>
       </c>
@@ -5239,7 +5222,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>163</v>
       </c>
@@ -5247,7 +5230,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>163</v>
       </c>
@@ -5255,7 +5238,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>163</v>
       </c>
@@ -5263,7 +5246,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>163</v>
       </c>
@@ -5271,7 +5254,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>163</v>
       </c>
@@ -5279,7 +5262,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>163</v>
       </c>
@@ -5287,7 +5270,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>163</v>
       </c>
@@ -5295,7 +5278,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>164</v>
       </c>
@@ -5303,7 +5286,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>164</v>
       </c>
@@ -5311,7 +5294,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>165</v>
       </c>
@@ -5319,7 +5302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>165</v>
       </c>
@@ -5327,7 +5310,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>165</v>
       </c>
@@ -5335,7 +5318,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>165</v>
       </c>
@@ -5343,7 +5326,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>166</v>
       </c>
@@ -5351,7 +5334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>166</v>
       </c>
@@ -5359,7 +5342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>166</v>
       </c>
@@ -5367,7 +5350,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>166</v>
       </c>
@@ -5375,7 +5358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>166</v>
       </c>
@@ -5383,7 +5366,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>167</v>
       </c>
@@ -5391,7 +5374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>167</v>
       </c>
@@ -5399,7 +5382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>168</v>
       </c>
@@ -5407,7 +5390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>169</v>
       </c>
@@ -5415,7 +5398,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>169</v>
       </c>
@@ -5423,7 +5406,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>169</v>
       </c>
@@ -5431,7 +5414,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>169</v>
       </c>
@@ -5439,7 +5422,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>169</v>
       </c>
@@ -5447,7 +5430,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>170</v>
       </c>
@@ -5455,7 +5438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>170</v>
       </c>
@@ -5463,7 +5446,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>170</v>
       </c>
@@ -5471,7 +5454,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>170</v>
       </c>
@@ -5479,7 +5462,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>171</v>
       </c>
@@ -5487,7 +5470,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>171</v>
       </c>
@@ -5495,7 +5478,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>172</v>
       </c>
@@ -5503,7 +5486,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>174</v>
       </c>
@@ -5511,7 +5494,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>174</v>
       </c>
@@ -5519,7 +5502,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>175</v>
       </c>
@@ -5527,7 +5510,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>175</v>
       </c>
@@ -5535,7 +5518,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>175</v>
       </c>
@@ -5543,7 +5526,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>175</v>
       </c>
@@ -5551,7 +5534,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>176</v>
       </c>
@@ -5559,7 +5542,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>178</v>
       </c>
@@ -5567,7 +5550,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>178</v>
       </c>
@@ -5575,7 +5558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>178</v>
       </c>
@@ -5583,7 +5566,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>178</v>
       </c>
@@ -5591,7 +5574,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>178</v>
       </c>
@@ -5599,7 +5582,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>178</v>
       </c>
@@ -5607,7 +5590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>178</v>
       </c>
@@ -5615,7 +5598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>178</v>
       </c>
@@ -5623,7 +5606,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>178</v>
       </c>
@@ -5631,7 +5614,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>178</v>
       </c>
@@ -5639,7 +5622,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>179</v>
       </c>
@@ -5647,7 +5630,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>179</v>
       </c>
@@ -5655,7 +5638,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>180</v>
       </c>
@@ -5663,7 +5646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>181</v>
       </c>
@@ -5671,7 +5654,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>181</v>
       </c>
@@ -5679,7 +5662,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>182</v>
       </c>
@@ -5687,7 +5670,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>182</v>
       </c>
@@ -5695,7 +5678,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>183</v>
       </c>
@@ -5703,7 +5686,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>183</v>
       </c>
@@ -5711,7 +5694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>183</v>
       </c>
@@ -5719,7 +5702,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>183</v>
       </c>
@@ -5727,7 +5710,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>183</v>
       </c>
@@ -5735,7 +5718,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>183</v>
       </c>
@@ -5743,7 +5726,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>183</v>
       </c>
@@ -5751,7 +5734,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>184</v>
       </c>
@@ -5759,7 +5742,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>185</v>
       </c>
@@ -5767,7 +5750,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -5775,7 +5758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>187</v>
       </c>
@@ -5783,7 +5766,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>187</v>
       </c>
@@ -5791,7 +5774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>187</v>
       </c>
@@ -5799,7 +5782,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>187</v>
       </c>
@@ -5807,7 +5790,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>187</v>
       </c>
@@ -5815,7 +5798,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>187</v>
       </c>
@@ -5823,7 +5806,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>188</v>
       </c>
@@ -5831,7 +5814,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>188</v>
       </c>
@@ -5839,7 +5822,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>189</v>
       </c>
@@ -5847,7 +5830,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>189</v>
       </c>
@@ -5855,7 +5838,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>190</v>
       </c>
@@ -5863,7 +5846,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>191</v>
       </c>
@@ -5871,7 +5854,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>191</v>
       </c>
@@ -5879,7 +5862,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>191</v>
       </c>
@@ -5887,7 +5870,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>191</v>
       </c>
@@ -5895,7 +5878,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>192</v>
       </c>
@@ -5903,7 +5886,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>192</v>
       </c>
@@ -5911,7 +5894,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>192</v>
       </c>
@@ -5919,7 +5902,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -5927,7 +5910,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>193</v>
       </c>
@@ -5935,7 +5918,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>193</v>
       </c>
@@ -5943,7 +5926,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>194</v>
       </c>
@@ -5951,7 +5934,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>196</v>
       </c>
@@ -5959,7 +5942,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>196</v>
       </c>
@@ -5967,7 +5950,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>196</v>
       </c>
@@ -5975,7 +5958,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>197</v>
       </c>
@@ -5983,7 +5966,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>197</v>
       </c>
@@ -5991,7 +5974,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>197</v>
       </c>
@@ -5999,7 +5982,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>197</v>
       </c>
@@ -6007,7 +5990,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>197</v>
       </c>
@@ -6015,7 +5998,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>197</v>
       </c>
@@ -6023,7 +6006,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>198</v>
       </c>
@@ -6031,7 +6014,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>198</v>
       </c>
@@ -6039,7 +6022,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>198</v>
       </c>
@@ -6047,7 +6030,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>198</v>
       </c>
@@ -6055,7 +6038,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>199</v>
       </c>
@@ -6063,7 +6046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>200</v>
       </c>
@@ -6071,7 +6054,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>202</v>
       </c>
@@ -6079,7 +6062,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>204</v>
       </c>
@@ -6087,7 +6070,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>206</v>
       </c>
@@ -6095,7 +6078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>206</v>
       </c>
@@ -6103,7 +6086,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>206</v>
       </c>
@@ -6111,7 +6094,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>207</v>
       </c>
@@ -6119,7 +6102,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>207</v>
       </c>
@@ -6127,7 +6110,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>207</v>
       </c>
@@ -6135,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>207</v>
       </c>
@@ -6143,7 +6126,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>207</v>
       </c>
@@ -6151,7 +6134,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>207</v>
       </c>
@@ -6159,7 +6142,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>208</v>
       </c>
@@ -6167,7 +6150,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>210</v>
       </c>
@@ -6175,7 +6158,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>210</v>
       </c>
@@ -6183,7 +6166,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>210</v>
       </c>
@@ -6191,7 +6174,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>211</v>
       </c>
@@ -6199,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>212</v>
       </c>
@@ -6207,7 +6190,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>212</v>
       </c>
@@ -6215,7 +6198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>213</v>
       </c>
@@ -6223,7 +6206,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>213</v>
       </c>
@@ -6231,7 +6214,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>213</v>
       </c>
@@ -6239,7 +6222,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>214</v>
       </c>
@@ -6247,7 +6230,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>216</v>
       </c>
@@ -6255,7 +6238,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>216</v>
       </c>
@@ -6263,7 +6246,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>217</v>
       </c>
@@ -6271,7 +6254,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>217</v>
       </c>
@@ -6279,7 +6262,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>217</v>
       </c>
@@ -6287,7 +6270,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>218</v>
       </c>
@@ -6295,7 +6278,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>218</v>
       </c>
@@ -6303,7 +6286,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>219</v>
       </c>
@@ -6311,7 +6294,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>219</v>
       </c>
@@ -6319,7 +6302,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>219</v>
       </c>
@@ -6327,7 +6310,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>219</v>
       </c>
@@ -6335,7 +6318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>219</v>
       </c>
@@ -6343,7 +6326,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>220</v>
       </c>
@@ -6351,7 +6334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>221</v>
       </c>
@@ -6359,7 +6342,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>223</v>
       </c>
@@ -6367,7 +6350,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>225</v>
       </c>
@@ -6375,7 +6358,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>225</v>
       </c>
@@ -6383,7 +6366,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>226</v>
       </c>
@@ -6391,7 +6374,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>226</v>
       </c>
@@ -6399,7 +6382,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>227</v>
       </c>
@@ -6407,7 +6390,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>227</v>
       </c>
@@ -6415,7 +6398,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>227</v>
       </c>
@@ -6423,7 +6406,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>227</v>
       </c>
@@ -6431,7 +6414,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>227</v>
       </c>
@@ -6439,7 +6422,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>227</v>
       </c>
@@ -6447,7 +6430,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>227</v>
       </c>
@@ -6455,7 +6438,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>227</v>
       </c>
@@ -6463,7 +6446,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>227</v>
       </c>
@@ -6471,7 +6454,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>228</v>
       </c>
@@ -6479,7 +6462,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>230</v>
       </c>
@@ -6487,7 +6470,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>230</v>
       </c>
@@ -6495,7 +6478,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>231</v>
       </c>
@@ -6503,7 +6486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>232</v>
       </c>
@@ -6511,7 +6494,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>232</v>
       </c>
@@ -6519,7 +6502,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>232</v>
       </c>
@@ -6527,7 +6510,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>232</v>
       </c>
@@ -6535,7 +6518,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>232</v>
       </c>
@@ -6543,7 +6526,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>232</v>
       </c>
@@ -6551,7 +6534,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>232</v>
       </c>
@@ -6559,7 +6542,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>233</v>
       </c>
@@ -6567,7 +6550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>233</v>
       </c>
@@ -6575,7 +6558,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>233</v>
       </c>
@@ -6583,7 +6566,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>234</v>
       </c>
@@ -6591,7 +6574,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>236</v>
       </c>
@@ -6599,7 +6582,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>236</v>
       </c>
@@ -6607,7 +6590,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>237</v>
       </c>
@@ -6615,7 +6598,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>237</v>
       </c>
@@ -6623,7 +6606,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>237</v>
       </c>
@@ -6631,7 +6614,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>238</v>
       </c>
@@ -6639,7 +6622,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>238</v>
       </c>
@@ -6647,7 +6630,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>239</v>
       </c>
@@ -6655,7 +6638,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>241</v>
       </c>
@@ -6663,7 +6646,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>241</v>
       </c>
@@ -6671,7 +6654,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>242</v>
       </c>
@@ -6679,7 +6662,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>242</v>
       </c>
@@ -6687,7 +6670,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>243</v>
       </c>
@@ -6695,7 +6678,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>243</v>
       </c>
@@ -6703,7 +6686,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>244</v>
       </c>
@@ -6711,7 +6694,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>244</v>
       </c>
@@ -6719,7 +6702,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>244</v>
       </c>
@@ -6727,7 +6710,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>245</v>
       </c>
@@ -6735,7 +6718,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>245</v>
       </c>
@@ -6743,7 +6726,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>246</v>
       </c>
@@ -6751,7 +6734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>246</v>
       </c>
@@ -6759,7 +6742,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>247</v>
       </c>
@@ -6767,7 +6750,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>247</v>
       </c>
@@ -6775,7 +6758,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>247</v>
       </c>
@@ -6783,7 +6766,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>248</v>
       </c>
@@ -6791,7 +6774,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>249</v>
       </c>
@@ -6799,7 +6782,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>251</v>
       </c>
@@ -6807,7 +6790,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>251</v>
       </c>
@@ -6815,7 +6798,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>251</v>
       </c>
@@ -6823,7 +6806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>251</v>
       </c>
@@ -6831,7 +6814,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>252</v>
       </c>
@@ -6839,7 +6822,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>254</v>
       </c>
@@ -6847,7 +6830,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>254</v>
       </c>
@@ -6855,7 +6838,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>255</v>
       </c>
@@ -6863,7 +6846,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>257</v>
       </c>

--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90850C9-BE48-4E4F-9F68-989E6965AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C8A91B-FCA0-7B47-AD12-3F1E73C0F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1374,10 +1374,10 @@
     <t>Slug</t>
   </si>
   <si>
-    <t>/alumni/get-involved</t>
-  </si>
-  <si>
     <t>basic</t>
+  </si>
+  <si>
+    <t>/biology</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/basic_page.xlsx
+++ b/basic_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C8A91B-FCA0-7B47-AD12-3F1E73C0F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7CC9FE-4306-DB48-AB05-A7A42AB25911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="459">
   <si>
     <t>urso</t>
   </si>
@@ -1377,14 +1377,50 @@
     <t>basic</t>
   </si>
   <si>
-    <t>/biology</t>
+    <t>/steinhauer/</t>
+  </si>
+  <si>
+    <t>menu not found on wordpress</t>
+  </si>
+  <si>
+    <t>/aac/</t>
+  </si>
+  <si>
+    <t>/accounting/</t>
+  </si>
+  <si>
+    <t>/rotc/</t>
+  </si>
+  <si>
+    <t>/academic-program-finder/biochemistry/</t>
+  </si>
+  <si>
+    <t>/cit/</t>
+  </si>
+  <si>
+    <t>Menu matched</t>
+  </si>
+  <si>
+    <t>Menu not found on drupal and wp content is similar</t>
+  </si>
+  <si>
+    <t>Menu items missing on wordpress</t>
+  </si>
+  <si>
+    <t>"HOME" menu item missing from menu</t>
+  </si>
+  <si>
+    <t>Appears "Selected menu is empty or could not be loaded"</t>
+  </si>
+  <si>
+    <t>career-design/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,6 +1456,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1458,7 +1499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1469,6 +1510,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1775,19 +1821,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.5" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>443</v>
       </c>
@@ -1795,60 +1842,96 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="96" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="96" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="112" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
     </row>
